--- a/AvailableCategories.xlsx
+++ b/AvailableCategories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\App-Feature-Analysis-and-Comment-Driven-Rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1816C16-680F-4AFA-9B1A-D14C25F3EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83231822-9B78-48D5-A030-F0C544B0C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>APPLICATION</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Pavithran</t>
+  </si>
+  <si>
+    <t>Parama</t>
+  </si>
+  <si>
+    <t>Barani</t>
   </si>
 </sst>
 </file>
@@ -202,12 +211,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,8 +249,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,273 +545,282 @@
     <col min="1" max="1" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/AvailableCategories.xlsx
+++ b/AvailableCategories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\App-Feature-Analysis-and-Comment-Driven-Rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83231822-9B78-48D5-A030-F0C544B0C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7BCF6-66E7-43C4-AAC4-5F63CE8EFE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
